--- a/TRACUUTKWIN/tempExcel2007.xlsx
+++ b/TRACUUTKWIN/tempExcel2007.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
   <si>
     <t>SỐ TK</t>
   </si>
@@ -72,9 +72,6 @@
     <t>N501A_AWBNB_1</t>
   </si>
   <si>
-    <t>SỐ VẬN ĐƠN</t>
-  </si>
-  <si>
     <t>MÃ CỬA KHẨU</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>N501A_KIJIT</t>
   </si>
   <si>
-    <t>SỐ HỢP ĐỒNG #&amp; NGÀY HỢP ĐỒNG</t>
-  </si>
-  <si>
     <t>MÃ GIAO HÀNG</t>
   </si>
   <si>
@@ -265,6 +259,235 @@
   </si>
   <si>
     <t>GIỜ HOÀN THÀNH</t>
+  </si>
+  <si>
+    <t>N501B_RANNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N501B_HINME </t>
+  </si>
+  <si>
+    <t>MÃ HÀNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N501B_HINMC </t>
+  </si>
+  <si>
+    <t>NƯỚC XX</t>
+  </si>
+  <si>
+    <t>N501B_ORGLC</t>
+  </si>
+  <si>
+    <t>MÃ ĐVT</t>
+  </si>
+  <si>
+    <t>N501B_TANI1</t>
+  </si>
+  <si>
+    <t>SỐ LƯỢNG</t>
+  </si>
+  <si>
+    <t>N501B_SURY1</t>
+  </si>
+  <si>
+    <t>ĐƠN GIÁ KB</t>
+  </si>
+  <si>
+    <t>N501B_TANKA</t>
+  </si>
+  <si>
+    <t>ĐƠN GIÁ TÍNH THUẾ</t>
+  </si>
+  <si>
+    <t>N501B_KAZTK</t>
+  </si>
+  <si>
+    <t>TRỊ GIÁ KB</t>
+  </si>
+  <si>
+    <t>N501B_BPRIC</t>
+  </si>
+  <si>
+    <t>TRỊ GIÁ TÍNH THUẾ</t>
+  </si>
+  <si>
+    <t>N501B_KANKG</t>
+  </si>
+  <si>
+    <t>TRỊ GIÁ KB VNĐ</t>
+  </si>
+  <si>
+    <t>N501B_KAZEI</t>
+  </si>
+  <si>
+    <t>TS XNK</t>
+  </si>
+  <si>
+    <t>N501B_KANRT</t>
+  </si>
+  <si>
+    <t>N501B_NAIBC_1</t>
+  </si>
+  <si>
+    <t>LOẠI THUẾ 1</t>
+  </si>
+  <si>
+    <t>N501B_NAIRT_1</t>
+  </si>
+  <si>
+    <t>TS LOẠI THUẾ 1</t>
+  </si>
+  <si>
+    <t>N501B_NAIGK_1</t>
+  </si>
+  <si>
+    <t>TiỀN THUẾ LOẠI THUẾ 1</t>
+  </si>
+  <si>
+    <t>LOẠI THUẾ 2</t>
+  </si>
+  <si>
+    <t>TS LOẠI THUẾ 2</t>
+  </si>
+  <si>
+    <t>TiỀN THUẾ LOẠI THUẾ 2</t>
+  </si>
+  <si>
+    <t>LOẠI THUẾ 3</t>
+  </si>
+  <si>
+    <t>TS LOẠI THUẾ 3</t>
+  </si>
+  <si>
+    <t>TiỀN THUẾ LOẠI THUẾ 3</t>
+  </si>
+  <si>
+    <t>LOẠI THUẾ 4</t>
+  </si>
+  <si>
+    <t>TS LOẠI THUẾ 4</t>
+  </si>
+  <si>
+    <t>TiỀN THUẾ LOẠI THUẾ 4</t>
+  </si>
+  <si>
+    <t>LOẠI THUẾ 5</t>
+  </si>
+  <si>
+    <t>TS LOẠI THUẾ 5</t>
+  </si>
+  <si>
+    <t>TiỀN THUẾ LOẠI THUẾ 5</t>
+  </si>
+  <si>
+    <t>N501B_NAIBC_2</t>
+  </si>
+  <si>
+    <t>N501B_NAIRT_2</t>
+  </si>
+  <si>
+    <t>N501B_NAIGK_2</t>
+  </si>
+  <si>
+    <t>N501B_NAIBC_3</t>
+  </si>
+  <si>
+    <t>N501B_NAIRT_3</t>
+  </si>
+  <si>
+    <t>N501B_NAIGK_3</t>
+  </si>
+  <si>
+    <t>N501B_NAIBC_4</t>
+  </si>
+  <si>
+    <t>N501B_NAIRT_4</t>
+  </si>
+  <si>
+    <t>N501B_NAIGK_4</t>
+  </si>
+  <si>
+    <t>N501B_NAIBC_5</t>
+  </si>
+  <si>
+    <t>N501B_NAIRT_5</t>
+  </si>
+  <si>
+    <t>N501B_NAIGK_5</t>
+  </si>
+  <si>
+    <t>N501B_KANGK</t>
+  </si>
+  <si>
+    <t>THUẾ XNK</t>
+  </si>
+  <si>
+    <t>N501B_ORGNK</t>
+  </si>
+  <si>
+    <t>MÃ BIỂU THUẾ XNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N501B_MATCD </t>
+  </si>
+  <si>
+    <t>LOẠI HÀNG</t>
+  </si>
+  <si>
+    <t>N501B_SIKNO</t>
+  </si>
+  <si>
+    <t>SIKNO</t>
+  </si>
+  <si>
+    <t>SINKD</t>
+  </si>
+  <si>
+    <t>SINKS</t>
+  </si>
+  <si>
+    <t>SHIKS</t>
+  </si>
+  <si>
+    <t>YUNYC</t>
+  </si>
+  <si>
+    <t>YUSYK</t>
+  </si>
+  <si>
+    <t>YUNN2</t>
+  </si>
+  <si>
+    <t>SỐ VẬN ĐƠN 1</t>
+  </si>
+  <si>
+    <t>SỐ VẬN ĐƠN 2</t>
+  </si>
+  <si>
+    <t>SỐ VẬN ĐƠN 3</t>
+  </si>
+  <si>
+    <t>SỐ VẬN ĐƠN 4</t>
+  </si>
+  <si>
+    <t>SỐ VẬN ĐƠN 5</t>
+  </si>
+  <si>
+    <t>N501A_AWBNB_2</t>
+  </si>
+  <si>
+    <t>N501A_AWBNB_3</t>
+  </si>
+  <si>
+    <t>N501A_AWBNB_4</t>
+  </si>
+  <si>
+    <t>N501A_AWBNB_5</t>
+  </si>
+  <si>
+    <t>SỐ HỢP ĐỒNG #&amp; NGÀY HỢP ĐỒNG (nếu là tờ khai gia công)
+GHI CHÚ KHÁC</t>
   </si>
 </sst>
 </file>
@@ -313,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -331,6 +554,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,9 +858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -642,34 +876,36 @@
     <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" style="2" customWidth="1"/>
-    <col min="17" max="21" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="2"/>
-    <col min="37" max="37" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="9.140625" style="2"/>
-    <col min="41" max="41" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="9.140625" style="2"/>
-    <col min="45" max="45" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="16" width="18.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" style="2" customWidth="1"/>
+    <col min="21" max="25" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="57.5703125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="9.140625" style="2"/>
+    <col min="31" max="31" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="2"/>
+    <col min="41" max="41" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="2"/>
+    <col min="45" max="45" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="9.140625" style="2"/>
+    <col min="49" max="49" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:49" s="1" customFormat="1" ht="42.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,109 +940,142 @@
         <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:49">
+      <c r="A2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
@@ -823,106 +1092,121 @@
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" s="2" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="3" spans="1:49">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:49">
       <c r="G4" s="2"/>
     </row>
   </sheetData>
@@ -933,33 +1217,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:IV1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="13" width="9.140625" style="2"/>
+    <col min="14" max="16" width="20.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TRACUUTKWIN/tempExcel2007.xlsx
+++ b/TRACUUTKWIN/tempExcel2007.xlsx
@@ -536,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -563,6 +563,10 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,7 +865,7 @@
   <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,7 +902,7 @@
     <col min="41" max="41" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="2"/>
+    <col min="44" max="44" width="14.7109375" style="2" customWidth="1"/>
     <col min="45" max="45" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="48" width="9.140625" style="2"/>
     <col min="49" max="49" width="21.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1073,7 +1077,7 @@
       <c r="F2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>146</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1130,7 +1134,7 @@
       <c r="Y2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -1181,13 +1185,13 @@
       <c r="AP2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AR2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="11" t="s">
         <v>71</v>
       </c>
       <c r="AT2" s="2" t="s">

--- a/TRACUUTKWIN/tempExcel2007.xlsx
+++ b/TRACUUTKWIN/tempExcel2007.xlsx
@@ -11,6 +11,89 @@
     <sheet name="HANGMD" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="AWBNB_1">TOKHAMD!$L$1</definedName>
+    <definedName name="AWBNB_2">TOKHAMD!$M$1</definedName>
+    <definedName name="AWBNB_3">TOKHAMD!$N$1</definedName>
+    <definedName name="AWBNB_4">TOKHAMD!$O$1</definedName>
+    <definedName name="AWBNB_5">TOKHAMD!$P$1</definedName>
+    <definedName name="BPRIC">HANGMD!$K$1</definedName>
+    <definedName name="CYUK1">TOKHAMD!$H$1</definedName>
+    <definedName name="CYUK2">TOKHAMD!$AT$1</definedName>
+    <definedName name="GSIRT">TOKHAMD!$AN$1</definedName>
+    <definedName name="HINMC">HANGMD!$C$1</definedName>
+    <definedName name="HINMC_MA">HANGMD!$C$1</definedName>
+    <definedName name="HINME_TEN">HANGMD!$D$1</definedName>
+    <definedName name="HKANZ">TOKHAMD!$AK$1</definedName>
+    <definedName name="HOKEN">TOKHAMD!$AH$1</definedName>
+    <definedName name="INDAY">TOKHAMD!$AP$1</definedName>
+    <definedName name="INVKA">TOKHAMD!$AJ$1</definedName>
+    <definedName name="INVKJ">TOKHAMD!$AA$1</definedName>
+    <definedName name="INVNO">TOKHAMD!$AO$1</definedName>
+    <definedName name="KANGK">HANGMD!$O$1</definedName>
+    <definedName name="KANKG">HANGMD!$L$1</definedName>
+    <definedName name="KANRT">HANGMD!$N$1</definedName>
+    <definedName name="KAZEI">HANGMD!$M$1</definedName>
+    <definedName name="KAZTK">HANGMD!$J$1</definedName>
+    <definedName name="KIJIT">TOKHAMD!$Z$1</definedName>
+    <definedName name="KIJIT_DEXUAT">TOKHAMD!$AQ$1</definedName>
+    <definedName name="KONTA">TOKHAMD!$AU$1</definedName>
+    <definedName name="KOSUK">TOKHAMD!$AM$1</definedName>
+    <definedName name="KYOKD">TOKHAMD!$AV$1</definedName>
+    <definedName name="KYOKT">TOKHAMD!$AW$1</definedName>
+    <definedName name="MATCD_LOAI">HANGMD!$E$1</definedName>
+    <definedName name="NAIBC_1">HANGMD!$Q$1</definedName>
+    <definedName name="NAIBC_2">HANGMD!$T$1</definedName>
+    <definedName name="NAIBC_3">HANGMD!$W$1</definedName>
+    <definedName name="NAIBC_4">HANGMD!$Z$1</definedName>
+    <definedName name="NAIBC_5">HANGMD!$AC$1</definedName>
+    <definedName name="NAIGK_1">HANGMD!$S$1</definedName>
+    <definedName name="NAIGK_2">HANGMD!$V$1</definedName>
+    <definedName name="NAIGK_3">HANGMD!$Y$1</definedName>
+    <definedName name="NAIGK_4">HANGMD!$AB$1</definedName>
+    <definedName name="NAIGK_5">HANGMD!$AE$1</definedName>
+    <definedName name="NAIRT_1">HANGMD!$R$1</definedName>
+    <definedName name="NAIRT_2">HANGMD!$U$1</definedName>
+    <definedName name="NAIRT_3">HANGMD!$X$1</definedName>
+    <definedName name="NAIRT_4">HANGMD!$AA$1</definedName>
+    <definedName name="NAIRT_5">HANGMD!$AD$1</definedName>
+    <definedName name="ORGLC">HANGMD!$F$1</definedName>
+    <definedName name="ORGNK">HANGMD!$P$1</definedName>
+    <definedName name="PAYCD">TOKHAMD!$AC$1</definedName>
+    <definedName name="RANNB">HANGMD!$B$1</definedName>
+    <definedName name="RPEAT">TOKHAMD!$AB$1</definedName>
+    <definedName name="SHIKS">TOKHAMD!$D$1</definedName>
+    <definedName name="SIKNO">TOKHAMD!$A$1</definedName>
+    <definedName name="SIKNO_HANG">HANGMD!$A$1</definedName>
+    <definedName name="SINKD">TOKHAMD!$B$1</definedName>
+    <definedName name="SINKS">TOKHAMD!$C$1</definedName>
+    <definedName name="SURY1">HANGMD!$H$1</definedName>
+    <definedName name="TANI1">HANGMD!$G$1</definedName>
+    <definedName name="TANKA">HANGMD!$I$1</definedName>
+    <definedName name="TMDSI">TOKHAMD!$S$1</definedName>
+    <definedName name="TMDSM">TOKHAMD!$T$1</definedName>
+    <definedName name="TRANS">TOKHAMD!$I$1</definedName>
+    <definedName name="TRORC">TOKHAMD!$Q$1</definedName>
+    <definedName name="TRORN">TOKHAMD!$R$1</definedName>
+    <definedName name="TUKCD_1">TOKHAMD!$AD$1</definedName>
+    <definedName name="TUKRT_1">TOKHAMD!$AE$1</definedName>
+    <definedName name="TYBNA">TOKHAMD!$J$1</definedName>
+    <definedName name="TYNEP">TOKHAMD!$K$1</definedName>
+    <definedName name="UDATE">TOKHAMD!$AF$1</definedName>
+    <definedName name="UNTIN">TOKHAMD!$AI$1</definedName>
+    <definedName name="UTIME">TOKHAMD!$AG$1</definedName>
+    <definedName name="WAIGW">TOKHAMD!$AL$1</definedName>
+    <definedName name="YSYOS_1">TOKHAMD!$U$1</definedName>
+    <definedName name="YSYOS_2">TOKHAMD!$V$1</definedName>
+    <definedName name="YSYOS_3">TOKHAMD!$W$1</definedName>
+    <definedName name="YSYOS_4">TOKHAMD!$X$1</definedName>
+    <definedName name="YSYOS_5">TOKHAMD!$Y$1</definedName>
+    <definedName name="YUNN1">TOKHAMD!$AS$1</definedName>
+    <definedName name="YUNN2">TOKHAMD!$G$1</definedName>
+    <definedName name="YUNYC">TOKHAMD!$E$1</definedName>
+    <definedName name="YUSYC">TOKHAMD!$AR$1</definedName>
+    <definedName name="YUSYK">TOKHAMD!$F$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -864,9 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1223,9 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
   <cols>

--- a/TRACUUTKWIN/tempExcel2007.xlsx
+++ b/TRACUUTKWIN/tempExcel2007.xlsx
@@ -619,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -651,6 +651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,10 +983,11 @@
     <col min="40" max="40" width="9.140625" style="2"/>
     <col min="41" max="41" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.7109375" style="2" customWidth="1"/>
-    <col min="45" max="45" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="9.140625" style="2"/>
+    <col min="43" max="43" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" style="11" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="11"/>
+    <col min="47" max="48" width="9.140625" style="2"/>
     <col min="49" max="49" width="21.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="50" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1117,16 +1119,16 @@
       <c r="AP1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AU1" s="1" t="s">
@@ -1275,7 +1277,7 @@
       <c r="AS2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AT2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="AU2" s="2" t="s">
